--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0050E669-72AC-4A2B-8CDE-45FCCBB546B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6198B-F11B-4204-B279-F8D55C22437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="PO Tag" sheetId="4" r:id="rId3"/>
+    <sheet name="Non Po Tag" sheetId="5" r:id="rId4"/>
+    <sheet name="Tax Code" sheetId="6" r:id="rId5"/>
+    <sheet name="Assets" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -165,38 +168,257 @@
     <t>SFTPPathOut</t>
   </si>
   <si>
-    <t>C:\Users\rpa.uat\Documents\SFTP Path\Out</t>
-  </si>
-  <si>
     <t>SFTP_Host</t>
   </si>
   <si>
+    <t>SFTP_Port</t>
+  </si>
+  <si>
+    <t>SFTP_Cred</t>
+  </si>
+  <si>
+    <t>InputXmlLocalPath</t>
+  </si>
+  <si>
+    <t>SFTPFolderMissing</t>
+  </si>
+  <si>
+    <t>SFTP out folder is missing from SFTP server</t>
+  </si>
+  <si>
+    <t>StatusTrackerName</t>
+  </si>
+  <si>
+    <t>Po_NonPo_DailyTracker-</t>
+  </si>
+  <si>
+    <t>Tracker_TemplatePath</t>
+  </si>
+  <si>
+    <t>Tracker_OutputPath</t>
+  </si>
+  <si>
+    <t>Data\Output</t>
+  </si>
+  <si>
+    <t>Data\Input\Tracker Template\Template.xlsx</t>
+  </si>
+  <si>
+    <t>PO Invoice</t>
+  </si>
+  <si>
+    <t>Inv_Type_Po_Invoices</t>
+  </si>
+  <si>
+    <t>InvoiceType</t>
+  </si>
+  <si>
+    <t>Tag_InviceType</t>
+  </si>
+  <si>
+    <t>tag_CompCode</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>tag_Amount</t>
+  </si>
+  <si>
+    <t>InvoiceAmount</t>
+  </si>
+  <si>
+    <t>tag_InvDate</t>
+  </si>
+  <si>
+    <t>tag_TaxAmount</t>
+  </si>
+  <si>
+    <t>TaxAmount</t>
+  </si>
+  <si>
+    <t>tag_PurchaseOrder</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>sftp://Invoices%254000208307.100486157@sftp-az3.ondemand.esker.com/Out</t>
+  </si>
+  <si>
     <t>sftp-az3.ondemand.esker.com</t>
   </si>
   <si>
-    <t>SFTP_Port</t>
-  </si>
-  <si>
-    <t>SFTP_Cred</t>
-  </si>
-  <si>
-    <t>InputXmlLocalPath</t>
+    <t>/Out</t>
   </si>
   <si>
     <t>Data\Input</t>
   </si>
   <si>
-    <t>SFTPFolderMissing</t>
-  </si>
-  <si>
-    <t>SFTP out folder is missing from SFTP server</t>
+    <t>DownloadXmlLocalPath</t>
+  </si>
+  <si>
+    <t>Data\Input\Out</t>
+  </si>
+  <si>
+    <t>SAP_LogonPath</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>ConnectionName</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>SAP_Cred</t>
+  </si>
+  <si>
+    <t>SAP_Credential</t>
+  </si>
+  <si>
+    <t>Statustracker_ArchivePath</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa.uat\Documents\SAP\Status Tracker</t>
+  </si>
+  <si>
+    <t>EmailTo</t>
+  </si>
+  <si>
+    <t>EmailCC</t>
+  </si>
+  <si>
+    <t>EmailSubSuccess</t>
+  </si>
+  <si>
+    <t>EmailSubFail</t>
+  </si>
+  <si>
+    <t>rpa.uat@sh-cogent.com.sg</t>
+  </si>
+  <si>
+    <t>Cogent: Po Process has been successfully complated</t>
+  </si>
+  <si>
+    <t>Cogent:Exception Occurred in  PO Process</t>
+  </si>
+  <si>
+    <t>Email_SuccessBody</t>
+  </si>
+  <si>
+    <t>Email_FailBody</t>
+  </si>
+  <si>
+    <t>Dear User,&lt;br&gt;&lt;br&gt;Po Process execution has failed. For more details please see below exception message.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dear User,&lt;br&gt;&lt;br&gt;Po Process has been executed successfully by BOT. Please see attached status tracker for your reference.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>BOT_Signature</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;&lt;br&gt;Regards,&lt;br&gt;Cogent BOT</t>
+  </si>
+  <si>
+    <t>MIRO_Tcode</t>
+  </si>
+  <si>
+    <t>MIRO</t>
+  </si>
+  <si>
+    <t>Timeoutshort</t>
+  </si>
+  <si>
+    <t>TimeoutMed</t>
+  </si>
+  <si>
+    <t>Timeouthigh</t>
+  </si>
+  <si>
+    <t>P1 (Tax on purchases : 7%)</t>
+  </si>
+  <si>
+    <t>P0 (Tax on purchases : 0%)</t>
+  </si>
+  <si>
+    <t>P2 (Exempted Purchases)</t>
+  </si>
+  <si>
+    <t>P3 (Tax on purchases : 3.5%)</t>
+  </si>
+  <si>
+    <t>P4 (Out of scope purchases)</t>
+  </si>
+  <si>
+    <t>P5 (Tax on purchases : 8%)</t>
+  </si>
+  <si>
+    <t>P6 (Tax on purchases : 9%)</t>
+  </si>
+  <si>
+    <t>P7 (Tax on purchases : 4%)</t>
+  </si>
+  <si>
+    <t>P8 (Tax on purchases : 4.5%)</t>
+  </si>
+  <si>
+    <t>P9 ()</t>
+  </si>
+  <si>
+    <t>PA ()</t>
+  </si>
+  <si>
+    <t>S0 (Tax on sales : 0%)</t>
+  </si>
+  <si>
+    <t>S1 (Tax on sales : 7%)</t>
+  </si>
+  <si>
+    <t>S2 (Exempted Sales)</t>
+  </si>
+  <si>
+    <t>S3 (Tax on sales : 3.5%)</t>
+  </si>
+  <si>
+    <t>S4 (Out of scope sales)</t>
+  </si>
+  <si>
+    <t>S5 (Tax on sales : 8%)</t>
+  </si>
+  <si>
+    <t>S6 (Tax on sales : 9%)</t>
+  </si>
+  <si>
+    <t>S7 (Tax on sales : 4%)</t>
+  </si>
+  <si>
+    <t>S8 (Tax on sales : 4.5%)</t>
+  </si>
+  <si>
+    <t>SO (Exempted Sales)</t>
+  </si>
+  <si>
+    <t>TaxCodePath</t>
+  </si>
+  <si>
+    <t>Data\Config.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,6 +442,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +797,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -647,38 +876,112 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1654,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1841,10 +2144,10 @@
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1853,57 +2156,144 @@
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>48</v>
+      <c r="B27">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2844,6 +3234,7 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,6 +3242,236 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34508257-0785-4DC0-B956-BF0EF6F76F65}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D70C05-60B4-4EDC-872D-4094D462BE1D}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E18C35-744E-4255-B047-8DB7E195D11E}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>

--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6198B-F11B-4204-B279-F8D55C22437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65C6FB-FB31-4592-ADAA-9E70FCEE22C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -412,6 +412,48 @@
   </si>
   <si>
     <t>Data\Config.xlsx</t>
+  </si>
+  <si>
+    <t>ExcpMsg_PoNotFound</t>
+  </si>
+  <si>
+    <t>PO Details not found on SAP/ PO document not relased yet</t>
+  </si>
+  <si>
+    <t>PO_notReleasedYet</t>
+  </si>
+  <si>
+    <t>not yet released</t>
+  </si>
+  <si>
+    <t>New BJ DEV</t>
+  </si>
+  <si>
+    <t>SAP_Cred1</t>
+  </si>
+  <si>
+    <t>CompCodeNotFound</t>
+  </si>
+  <si>
+    <t>does not exist</t>
+  </si>
+  <si>
+    <t>ExcpMsg_CompNotExistinSAP</t>
+  </si>
+  <si>
+    <t>Company code does not exist in SAP</t>
+  </si>
+  <si>
+    <t>ExcpMsg_lineItemMismatch</t>
+  </si>
+  <si>
+    <t>ExcpMsg_AmountMismatch</t>
+  </si>
+  <si>
+    <t>Line item does not match with SAP</t>
+  </si>
+  <si>
+    <t>Amount, quanty &amp; Cost Centre does not match</t>
   </si>
 </sst>
 </file>
@@ -796,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -897,6 +939,12 @@
       <c r="B8" t="s">
         <v>81</v>
       </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
@@ -905,6 +953,12 @@
       <c r="B9">
         <v>800</v>
       </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -912,6 +966,12 @@
       </c>
       <c r="B10" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1957,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z989"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2106,191 +2166,233 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38">
-        <v>5000</v>
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39">
-        <v>10000</v>
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40">
-        <v>20000</v>
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
         <v>126</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3235,6 +3337,9 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3347,7 +3452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E18C35-744E-4255-B047-8DB7E195D11E}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65C6FB-FB31-4592-ADAA-9E70FCEE22C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB793B2-4C73-4178-AF7F-2C1ADD7620D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -285,12 +285,6 @@
     <t>SAP_Credential</t>
   </si>
   <si>
-    <t>Statustracker_ArchivePath</t>
-  </si>
-  <si>
-    <t>C:\Users\rpa.uat\Documents\SAP\Status Tracker</t>
-  </si>
-  <si>
     <t>EmailTo</t>
   </si>
   <si>
@@ -306,12 +300,6 @@
     <t>rpa.uat@sh-cogent.com.sg</t>
   </si>
   <si>
-    <t>Cogent: Po Process has been successfully complated</t>
-  </si>
-  <si>
-    <t>Cogent:Exception Occurred in  PO Process</t>
-  </si>
-  <si>
     <t>Email_SuccessBody</t>
   </si>
   <si>
@@ -454,6 +442,30 @@
   </si>
   <si>
     <t>Amount, quanty &amp; Cost Centre does not match</t>
+  </si>
+  <si>
+    <t>ExcpMsg_NoDocNo</t>
+  </si>
+  <si>
+    <t>Failed to generate document number. Please check screenshot for more details</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa.uat\Documents\XML Archival</t>
+  </si>
+  <si>
+    <t>XMLArchivalFolder</t>
+  </si>
+  <si>
+    <t>Cogent:Exception Occurred in  PO &amp; Non PO Posting Process</t>
+  </si>
+  <si>
+    <t>Cogent: Po and Non PO Posting Process has been successfully complated</t>
+  </si>
+  <si>
+    <t>ExcpMsg_NoXMLFound</t>
+  </si>
+  <si>
+    <t>No XML file found in SFTP out folder</t>
   </si>
 </sst>
 </file>
@@ -839,7 +851,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -937,13 +949,13 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -951,7 +963,7 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C9">
         <v>800</v>
@@ -964,67 +976,67 @@
       <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>83</v>
+      <c r="B10" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2017,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2168,234 +2180,248 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="45">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="b">
+      <c r="B23" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
-    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44">
+      <c r="B45">
         <v>20000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3340,6 +3366,7 @@
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3468,107 +3495,107 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB793B2-4C73-4178-AF7F-2C1ADD7620D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C79040-B13C-43EE-96D7-E029BE4356E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -466,6 +466,60 @@
   </si>
   <si>
     <t>No XML file found in SFTP out folder</t>
+  </si>
+  <si>
+    <t>XMLAckSuccess</t>
+  </si>
+  <si>
+    <t>Data\Input\XML Ack\Success.txt</t>
+  </si>
+  <si>
+    <t>XMLKeyInvNum</t>
+  </si>
+  <si>
+    <t>XMLKeyDocNum</t>
+  </si>
+  <si>
+    <t>XMLKeyException</t>
+  </si>
+  <si>
+    <t>InvoiceNum</t>
+  </si>
+  <si>
+    <t>DocNum</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>AckFoldPath</t>
+  </si>
+  <si>
+    <t>Data\Output\Ack</t>
+  </si>
+  <si>
+    <t>AckFileName</t>
+  </si>
+  <si>
+    <t>_ErpAck.xml</t>
+  </si>
+  <si>
+    <t>XMLAckFail</t>
+  </si>
+  <si>
+    <t>Data\Input\XML Ack\Fail.txt</t>
+  </si>
+  <si>
+    <t>SftpAckFolder</t>
+  </si>
+  <si>
+    <t>/ErpAck</t>
+  </si>
+  <si>
+    <t>ExcpMsg_SftpErpAckFolderMissing</t>
+  </si>
+  <si>
+    <t>ErpAck folder missing from SFTP</t>
   </si>
 </sst>
 </file>
@@ -850,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -987,60 +1041,74 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>85</v>
+      <c r="A11" t="s">
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>86</v>
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2029,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2226,218 +2294,267 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="b">
+      <c r="B24" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43">
-        <v>5000</v>
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
         <v>141</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3367,6 +3484,11 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C79040-B13C-43EE-96D7-E029BE4356E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816BD86F-44B9-4DE4-90D5-1EE3D194D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -447,9 +447,6 @@
     <t>ExcpMsg_NoDocNo</t>
   </si>
   <si>
-    <t>Failed to generate document number. Please check screenshot for more details</t>
-  </si>
-  <si>
     <t>C:\Users\rpa.uat\Documents\XML Archival</t>
   </si>
   <si>
@@ -520,6 +517,39 @@
   </si>
   <si>
     <t>ErpAck folder missing from SFTP</t>
+  </si>
+  <si>
+    <t>ExcpMsgSAPValueEmpty</t>
+  </si>
+  <si>
+    <t>Quantity, Amount or cost centre value is empty in SAP</t>
+  </si>
+  <si>
+    <t>SFTP_Cred_Dev</t>
+  </si>
+  <si>
+    <t>SFTP_Cred_QA</t>
+  </si>
+  <si>
+    <t>Failed to generate document number and no error found under messages. Please check screenshot for more details</t>
+  </si>
+  <si>
+    <t>ExcpMsg_LineitemCountMismatch</t>
+  </si>
+  <si>
+    <t>Line item count from XML &amp; SAP does not match. Please process this invoice manually</t>
+  </si>
+  <si>
+    <t>ExcpMsg_MandatoryValuemising</t>
+  </si>
+  <si>
+    <t>Mandatory value missing in XML file.</t>
+  </si>
+  <si>
+    <t>tag_InvoiceNum</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
   </si>
 </sst>
 </file>
@@ -904,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -987,7 +1017,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1074,7 +1107,7 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -1082,7 +1115,7 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
@@ -2097,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2283,270 +2316,291 @@
         <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
         <v>162</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="45">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="45">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="b">
+      <c r="B27" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
         <v>126</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
         <v>130</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45">
-        <v>10000</v>
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46">
-        <v>20000</v>
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
         <v>160</v>
       </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-    </row>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3487,8 +3541,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3497,10 +3549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34508257-0785-4DC0-B956-BF0EF6F76F65}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3521,43 +3573,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>71</v>
       </c>
     </row>

--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816BD86F-44B9-4DE4-90D5-1EE3D194D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05343833-A654-47C2-A883-02874AD924E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>ExcpMsg_LineitemsMissing</t>
+  </si>
+  <si>
+    <t>Couldnot find the line items in SAP</t>
   </si>
 </sst>
 </file>
@@ -935,7 +941,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2130,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2359,248 +2365,255 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="45">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="45">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="b">
+      <c r="B29" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-    </row>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42">
-        <v>3000</v>
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43">
-        <v>10000</v>
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44">
-        <v>20000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3541,6 +3554,8 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process_PO_NonPO_Invoices/Data/Config.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\Process_PO_NonPO_Invoices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05343833-A654-47C2-A883-02874AD924E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C6270-FF2B-4404-9BE5-0A1C3D6F018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
